--- a/SampleVarListSmall.xlsx
+++ b/SampleVarListSmall.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/estherspiteri/Masters/Masters-project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1A00967-5496-BF44-B7DE-99758E3D6880}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{525FBBE0-EF3D-D64A-8C4A-11FF9C7D9C80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -206,11 +206,17 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -248,11 +254,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1386,7 +1393,7 @@
   <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1457,7 +1464,7 @@
       <c r="A4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="4" t="s">
         <v>12</v>
       </c>
       <c r="C4" s="2" t="s">
@@ -1511,7 +1518,7 @@
       <c r="A6" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="4" t="s">
         <v>31</v>
       </c>
       <c r="C6" s="2" t="s">
@@ -1538,7 +1545,7 @@
       <c r="A7" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="4" t="s">
         <v>33</v>
       </c>
       <c r="C7" s="2" t="s">

--- a/SampleVarListSmall.xlsx
+++ b/SampleVarListSmall.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/estherspiteri/Masters/Masters-project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{525FBBE0-EF3D-D64A-8C4A-11FF9C7D9C80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBC89412-E1FA-E144-AB3A-37E78B611E54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,13 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="60">
-  <si>
-    <t>##reference=hg19</t>
-  </si>
-  <si>
-    <t>##MyVariantDB=MyVariantDefaultDb_hg19</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="75">
   <si>
     <t>Locus</t>
   </si>
@@ -46,15 +40,9 @@
     <t>Reference</t>
   </si>
   <si>
-    <t>Observed Allele</t>
-  </si>
-  <si>
     <t>Classification</t>
   </si>
   <si>
-    <t>Variant Id</t>
-  </si>
-  <si>
     <t>chr1:3321445</t>
   </si>
   <si>
@@ -94,18 +82,12 @@
     <t>INDEL</t>
   </si>
   <si>
-    <t>PATHOGENIC</t>
-  </si>
-  <si>
     <t>T/C</t>
   </si>
   <si>
     <t>LOC108783645,HFE</t>
   </si>
   <si>
-    <t>LIKELY_PATHOGENIC</t>
-  </si>
-  <si>
     <t>chr6:26091185</t>
   </si>
   <si>
@@ -200,6 +182,69 @@
   </si>
   <si>
     <t>CGCC</t>
+  </si>
+  <si>
+    <t>Sample Ids</t>
+  </si>
+  <si>
+    <t>10,56</t>
+  </si>
+  <si>
+    <t>9,11,34</t>
+  </si>
+  <si>
+    <t>78,34</t>
+  </si>
+  <si>
+    <t>8,32</t>
+  </si>
+  <si>
+    <t>Alt</t>
+  </si>
+  <si>
+    <t>Sample Phenotypes</t>
+  </si>
+  <si>
+    <t>ACMG Rules</t>
+  </si>
+  <si>
+    <t>Literature Links</t>
+  </si>
+  <si>
+    <t>HGVS</t>
+  </si>
+  <si>
+    <t>dfsgf</t>
+  </si>
+  <si>
+    <t>gsg</t>
+  </si>
+  <si>
+    <t>ds</t>
+  </si>
+  <si>
+    <t>fdgsd</t>
+  </si>
+  <si>
+    <t>dsgsfd</t>
+  </si>
+  <si>
+    <t>gfdsg</t>
+  </si>
+  <si>
+    <t>dsfg</t>
+  </si>
+  <si>
+    <t>sdfg</t>
+  </si>
+  <si>
+    <t>fgsd</t>
+  </si>
+  <si>
+    <t>dsgdsf</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ryttrujteryje</t>
   </si>
 </sst>
 </file>
@@ -227,7 +272,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -250,16 +295,32 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="9"/>
+      </left>
+      <right style="thin">
+        <color indexed="9"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1390,401 +1451,465 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I15"/>
+  <dimension ref="A1:N13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="39.83203125" style="1" customWidth="1"/>
-    <col min="2" max="3" width="8.83203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="11.6640625" style="1" customWidth="1"/>
-    <col min="5" max="10" width="8.83203125" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="8.83203125" style="1"/>
+    <col min="1" max="1" width="9.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="39.83203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="28.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="8.83203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
+    <col min="6" max="7" width="8.83203125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="19.33203125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="20" style="1" customWidth="1"/>
+    <col min="10" max="11" width="8.83203125" style="1" customWidth="1"/>
+    <col min="12" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="M1" s="2"/>
+      <c r="N1" s="7" t="s">
+        <v>63</v>
+      </c>
     </row>
-    <row r="2" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
+    <row r="2" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
+        <v>9</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="J2" s="3"/>
+      <c r="N2" s="5" t="s">
+        <v>64</v>
+      </c>
     </row>
-    <row r="3" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
-        <v>2</v>
+    <row r="3" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="5" t="s">
+        <v>55</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="H3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="J3" s="3"/>
+      <c r="N3" s="5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="E4" s="2" t="s">
         <v>10</v>
       </c>
+      <c r="F4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J4" s="3"/>
+      <c r="N4" s="5" t="s">
+        <v>67</v>
+      </c>
     </row>
-    <row r="4" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="I4" s="3"/>
-    </row>
-    <row r="5" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
-        <v>28</v>
+    <row r="5" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>9</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="I5" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="J5" s="3"/>
+      <c r="N5" s="8" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <v>54</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="F5" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="I5" s="3"/>
+      <c r="D6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="N6" s="8" t="s">
+        <v>69</v>
+      </c>
     </row>
-    <row r="6" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
+    <row r="7" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="G7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H7" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="I6" s="3"/>
+      <c r="I7" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J7" s="3"/>
+      <c r="N7" s="8" t="s">
+        <v>64</v>
+      </c>
     </row>
-    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="I7" s="3"/>
-    </row>
-    <row r="8" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="2" t="s">
-        <v>34</v>
+    <row r="8" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
+        <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>35</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="D8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J8" s="3"/>
+      <c r="N8" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="11" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
+        <v>45</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I9" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E8" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>38</v>
+      <c r="J9" s="3"/>
+      <c r="N9" s="1" t="s">
+        <v>71</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="2" t="s">
+    <row r="10" spans="1:14" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
+        <v>6</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="H9" s="2" t="s">
+      <c r="C10" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="I9" s="3"/>
-    </row>
-    <row r="10" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>13</v>
-      </c>
       <c r="D10" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G10" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="J10" s="3"/>
+      <c r="N10" s="9" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
+        <v>67</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J11" s="3"/>
+      <c r="N11" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="J12" s="3"/>
+      <c r="N12" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D13" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H10" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="I10" s="3"/>
-    </row>
-    <row r="11" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H11" s="2" t="s">
+      <c r="E13" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I13" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="I11" s="3"/>
-    </row>
-    <row r="12" spans="1:9" ht="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="I12" s="3"/>
-    </row>
-    <row r="13" spans="1:9" ht="13" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H13" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="I13" s="3"/>
-    </row>
-    <row r="14" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="H14" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="I14" s="3"/>
-    </row>
-    <row r="15" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H15" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="I15" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="N13" s="1" t="s">
+        <v>72</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
